--- a/times.xlsx
+++ b/times.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Times" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -16,6 +16,20 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Sequential</t>
+  </si>
+  <si>
+    <t>MPI</t>
+  </si>
+  <si>
+    <t>Comm</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -29,12 +43,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +75,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -69,7 +100,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -114,7 +145,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -149,7 +180,7 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -331,12 +362,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1">
+        <v>32</v>
+      </c>
+      <c r="J3" s="1">
+        <v>64</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1">
+        <v>4</v>
+      </c>
+      <c r="O3" s="1">
+        <v>8</v>
+      </c>
+      <c r="P3" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>32</v>
+      </c>
+      <c r="R3" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>14.370657</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>14.421497</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>14.414141000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>14.372161999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>14.37124</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <f>MEDIAN(B4:B8)</f>
+        <v>14.372161999999999</v>
+      </c>
+      <c r="D9" s="2" t="e">
+        <f t="shared" ref="C9:R9" si="0">MEDIAN(D4:D8)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E9" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F9" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G9" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H9" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I9" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J9" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="L9" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="M9" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N9" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O9" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P9" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q9" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R9" s="2" t="e">
+        <f t="shared" si="0"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="L2:R2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/times.xlsx
+++ b/times.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Times" sheetId="1" r:id="rId1"/>
+    <sheet name="Init" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,15 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
     <t>Sequential</t>
   </si>
   <si>
-    <t>MPI</t>
+    <t>Comm</t>
   </si>
   <si>
-    <t>Comm</t>
+    <t>MPI (Ethernet and mapped by core)</t>
+  </si>
+  <si>
+    <t>MPI (Ethernet and mapped by node)</t>
   </si>
 </sst>
 </file>
@@ -97,6 +101,2270 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Tempos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> de Execução e Comunicação - Core @ SeARCH 641</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tempo (s)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Init!$K$3:$R$3</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Sequential</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Init!$B$9,Init!$D$9:$J$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>14.372161999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.617786000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.78057</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6632690000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9599500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.234416</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.6810679999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>77.996142000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-451B-4778-95E8-1B4810A74D5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Comunicação</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Init!$K$3:$R$3</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Sequential</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Init!$K$9:$R$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26176199999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.316251</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.266683</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28913899999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.306674</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44719500000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.921318999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-451B-4778-95E8-1B4810A74D5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="338710296"/>
+        <c:axId val="338701768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="338710296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Número de Processos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338701768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="338701768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tempo (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="338710296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Tempos de Execução e Comunicação - Nó @ SeARCH 641</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1100">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tempo (s)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Init!$B$13,Init!$D$13:$I$13)</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>Sequential</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Init!$B$19,Init!$D$19:$I$19)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>14.372161999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.715558</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.591121000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.039876</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.914166000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.062925999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.933225</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-41AF-40D4-A1FC-0D48F9C677F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Comunicação</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Init!$K$19:$Q$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.256748000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.176516999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.150174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>34.108224999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.040937</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-41AF-40D4-A1FC-0D48F9C677F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="278434080"/>
+        <c:axId val="278434408"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="278434080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Número</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> de Processos</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="278434408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="278434408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tempo (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="278434080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>184785</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>186689</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -364,8 +2632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -375,7 +2643,7 @@
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -384,7 +2652,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -410,13 +2678,13 @@
         <v>8</v>
       </c>
       <c r="H3" s="1">
+        <v>12</v>
+      </c>
+      <c r="I3" s="1">
         <v>16</v>
       </c>
-      <c r="I3" s="1">
-        <v>32</v>
-      </c>
       <c r="J3" s="1">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -431,13 +2699,13 @@
         <v>8</v>
       </c>
       <c r="P3" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="1">
         <v>16</v>
       </c>
-      <c r="Q3" s="1">
-        <v>32</v>
-      </c>
       <c r="R3" s="1">
-        <v>64</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.25">
@@ -471,7 +2739,7 @@
         <v>14.372161999999999</v>
       </c>
       <c r="D9" s="2" t="e">
-        <f t="shared" ref="C9:R9" si="0">MEDIAN(D4:D8)</f>
+        <f t="shared" ref="D9:R9" si="0">MEDIAN(D4:D8)</f>
         <v>#NUM!</v>
       </c>
       <c r="E9" s="2" t="e">
@@ -534,4 +2802,745 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="N54" sqref="N54"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1">
+        <v>16</v>
+      </c>
+      <c r="I3" s="1">
+        <v>32</v>
+      </c>
+      <c r="J3" s="1">
+        <v>64</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1">
+        <v>2</v>
+      </c>
+      <c r="N3" s="1">
+        <v>4</v>
+      </c>
+      <c r="O3" s="1">
+        <v>8</v>
+      </c>
+      <c r="P3" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>32</v>
+      </c>
+      <c r="R3" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>14.370657</v>
+      </c>
+      <c r="D4">
+        <v>11.555652</v>
+      </c>
+      <c r="E4">
+        <v>7.7815630000000002</v>
+      </c>
+      <c r="F4">
+        <v>3.6656719999999998</v>
+      </c>
+      <c r="G4">
+        <v>2.9591720000000001</v>
+      </c>
+      <c r="H4">
+        <v>3.234416</v>
+      </c>
+      <c r="I4">
+        <v>5.8728829999999999</v>
+      </c>
+      <c r="J4">
+        <v>77.130610000000004</v>
+      </c>
+      <c r="L4">
+        <v>0.25855099999999998</v>
+      </c>
+      <c r="M4">
+        <v>0.31481700000000001</v>
+      </c>
+      <c r="N4">
+        <v>0.266683</v>
+      </c>
+      <c r="O4">
+        <v>0.28941699999999998</v>
+      </c>
+      <c r="P4">
+        <v>0.30709500000000001</v>
+      </c>
+      <c r="Q4">
+        <v>0.623529</v>
+      </c>
+      <c r="R4">
+        <v>34.439684</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>14.421497</v>
+      </c>
+      <c r="D5">
+        <v>11.537597999999999</v>
+      </c>
+      <c r="E5">
+        <v>7.7814350000000001</v>
+      </c>
+      <c r="F5">
+        <v>3.6626460000000001</v>
+      </c>
+      <c r="G5">
+        <v>2.9661019999999998</v>
+      </c>
+      <c r="H5">
+        <v>3.237708</v>
+      </c>
+      <c r="I5">
+        <v>5.6810679999999998</v>
+      </c>
+      <c r="J5">
+        <v>78.241033999999999</v>
+      </c>
+      <c r="L5">
+        <v>0.25719399999999998</v>
+      </c>
+      <c r="M5">
+        <v>0.31673499999999999</v>
+      </c>
+      <c r="N5">
+        <v>0.26576300000000003</v>
+      </c>
+      <c r="O5">
+        <v>0.288219</v>
+      </c>
+      <c r="P5">
+        <v>0.30750300000000003</v>
+      </c>
+      <c r="Q5">
+        <v>0.51750200000000002</v>
+      </c>
+      <c r="R5">
+        <v>35.634079</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>14.414141000000001</v>
+      </c>
+      <c r="D6">
+        <v>11.617786000000001</v>
+      </c>
+      <c r="E6">
+        <v>7.7793419999999998</v>
+      </c>
+      <c r="F6">
+        <v>3.6639400000000002</v>
+      </c>
+      <c r="G6">
+        <v>2.9654340000000001</v>
+      </c>
+      <c r="H6">
+        <v>3.4893559999999999</v>
+      </c>
+      <c r="I6">
+        <v>5.6857129999999998</v>
+      </c>
+      <c r="J6">
+        <v>77.984250000000003</v>
+      </c>
+      <c r="L6">
+        <v>0.26176199999999999</v>
+      </c>
+      <c r="M6">
+        <v>0.31612699999999999</v>
+      </c>
+      <c r="N6">
+        <v>0.26671899999999998</v>
+      </c>
+      <c r="O6">
+        <v>0.28929700000000003</v>
+      </c>
+      <c r="P6">
+        <v>0.30634600000000001</v>
+      </c>
+      <c r="Q6">
+        <v>0.43771599999999999</v>
+      </c>
+      <c r="R6">
+        <v>34.669629999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>14.372161999999999</v>
+      </c>
+      <c r="D7">
+        <v>11.885770000000001</v>
+      </c>
+      <c r="E7">
+        <v>7.78057</v>
+      </c>
+      <c r="F7">
+        <v>3.6616209999999998</v>
+      </c>
+      <c r="G7">
+        <v>2.9599500000000001</v>
+      </c>
+      <c r="H7">
+        <v>3.233409</v>
+      </c>
+      <c r="I7">
+        <v>5.3619190000000003</v>
+      </c>
+      <c r="J7">
+        <v>78.124791000000002</v>
+      </c>
+      <c r="L7">
+        <v>0.26407700000000001</v>
+      </c>
+      <c r="M7">
+        <v>0.316251</v>
+      </c>
+      <c r="N7">
+        <v>0.26580100000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.28838399999999997</v>
+      </c>
+      <c r="P7">
+        <v>0.305425</v>
+      </c>
+      <c r="Q7">
+        <v>0.44719500000000001</v>
+      </c>
+      <c r="R7">
+        <v>34.921318999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>14.37124</v>
+      </c>
+      <c r="D8">
+        <v>14.989860999999999</v>
+      </c>
+      <c r="E8">
+        <v>7.7773380000000003</v>
+      </c>
+      <c r="F8">
+        <v>3.6632690000000001</v>
+      </c>
+      <c r="G8">
+        <v>2.9589880000000002</v>
+      </c>
+      <c r="H8">
+        <v>3.1951290000000001</v>
+      </c>
+      <c r="I8">
+        <v>5.2826519999999997</v>
+      </c>
+      <c r="J8">
+        <v>77.996142000000006</v>
+      </c>
+      <c r="L8">
+        <v>0.29820200000000002</v>
+      </c>
+      <c r="M8">
+        <v>0.31765100000000002</v>
+      </c>
+      <c r="N8">
+        <v>0.26682699999999998</v>
+      </c>
+      <c r="O8">
+        <v>0.28913899999999998</v>
+      </c>
+      <c r="P8">
+        <v>0.306674</v>
+      </c>
+      <c r="Q8">
+        <v>0.34062999999999999</v>
+      </c>
+      <c r="R8">
+        <v>35.405386999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2">
+        <f>MEDIAN(B4:B8)</f>
+        <v>14.372161999999999</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2">
+        <f t="shared" ref="D9:R9" si="0">MEDIAN(D4:D8)</f>
+        <v>11.617786000000001</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>7.78057</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>3.6632690000000001</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="0"/>
+        <v>2.9599500000000001</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
+        <v>3.234416</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" si="0"/>
+        <v>5.6810679999999998</v>
+      </c>
+      <c r="J9" s="2">
+        <f>MEDIAN(J4:J8)</f>
+        <v>77.996142000000006</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.26176199999999999</v>
+      </c>
+      <c r="M9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.316251</v>
+      </c>
+      <c r="N9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.266683</v>
+      </c>
+      <c r="O9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.28913899999999998</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.306674</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.44719500000000001</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" si="0"/>
+        <v>34.921318999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1">
+        <v>16</v>
+      </c>
+      <c r="I13" s="1">
+        <v>32</v>
+      </c>
+      <c r="J13" s="1">
+        <v>64</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2</v>
+      </c>
+      <c r="N13" s="1">
+        <v>4</v>
+      </c>
+      <c r="O13" s="1">
+        <v>8</v>
+      </c>
+      <c r="P13" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>32</v>
+      </c>
+      <c r="R13" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>14.370657</v>
+      </c>
+      <c r="D14">
+        <v>11.531237000000001</v>
+      </c>
+      <c r="E14">
+        <v>41.475239999999999</v>
+      </c>
+      <c r="F14">
+        <v>37.485984999999999</v>
+      </c>
+      <c r="G14">
+        <v>37.008591000000003</v>
+      </c>
+      <c r="H14">
+        <v>37.079075000000003</v>
+      </c>
+      <c r="I14">
+        <v>38.854076999999997</v>
+      </c>
+      <c r="L14">
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="M14">
+        <v>35.739756</v>
+      </c>
+      <c r="N14">
+        <v>34.163114</v>
+      </c>
+      <c r="O14">
+        <v>34.150174</v>
+      </c>
+      <c r="P14">
+        <v>34.122388000000001</v>
+      </c>
+      <c r="Q14">
+        <v>34.023712000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>14.421497</v>
+      </c>
+      <c r="D15">
+        <v>14.983819</v>
+      </c>
+      <c r="E15">
+        <v>41.575721999999999</v>
+      </c>
+      <c r="F15">
+        <v>37.541545999999997</v>
+      </c>
+      <c r="G15">
+        <v>37.17409</v>
+      </c>
+      <c r="H15">
+        <v>37.167440999999997</v>
+      </c>
+      <c r="I15">
+        <v>39.158492000000003</v>
+      </c>
+      <c r="L15">
+        <v>0.297981</v>
+      </c>
+      <c r="M15">
+        <v>35.680503999999999</v>
+      </c>
+      <c r="N15">
+        <v>34.176516999999997</v>
+      </c>
+      <c r="O15">
+        <v>34.504694999999998</v>
+      </c>
+      <c r="P15">
+        <v>34.275455000000001</v>
+      </c>
+      <c r="Q15">
+        <v>34.040937</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>14.414141000000001</v>
+      </c>
+      <c r="D16">
+        <v>14.994329</v>
+      </c>
+      <c r="E16">
+        <v>41.671095000000001</v>
+      </c>
+      <c r="F16">
+        <v>38.039876</v>
+      </c>
+      <c r="G16">
+        <v>36.730901000000003</v>
+      </c>
+      <c r="H16">
+        <v>36.965581999999998</v>
+      </c>
+      <c r="I16">
+        <v>38.933225</v>
+      </c>
+      <c r="L16">
+        <v>0.29796099999999998</v>
+      </c>
+      <c r="M16">
+        <v>34.256748000000002</v>
+      </c>
+      <c r="N16">
+        <v>34.093314999999997</v>
+      </c>
+      <c r="O16">
+        <v>34.059038999999999</v>
+      </c>
+      <c r="P16">
+        <v>34.010705000000002</v>
+      </c>
+      <c r="Q16">
+        <v>34.098996999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>14.372161999999999</v>
+      </c>
+      <c r="D17">
+        <v>11.664925</v>
+      </c>
+      <c r="E17">
+        <v>41.594262999999998</v>
+      </c>
+      <c r="F17">
+        <v>38.659500000000001</v>
+      </c>
+      <c r="G17">
+        <v>36.696226000000003</v>
+      </c>
+      <c r="H17">
+        <v>37.062925999999997</v>
+      </c>
+      <c r="I17">
+        <v>38.803998999999997</v>
+      </c>
+      <c r="L17">
+        <v>0.25736500000000001</v>
+      </c>
+      <c r="M17">
+        <v>34.178679000000002</v>
+      </c>
+      <c r="N17">
+        <v>34.708429000000002</v>
+      </c>
+      <c r="O17">
+        <v>34.016258999999998</v>
+      </c>
+      <c r="P17">
+        <v>34.108224999999997</v>
+      </c>
+      <c r="Q17">
+        <v>34.022584999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>14.37124</v>
+      </c>
+      <c r="D18">
+        <v>11.715558</v>
+      </c>
+      <c r="E18">
+        <v>41.591121000000001</v>
+      </c>
+      <c r="F18">
+        <v>38.232795000000003</v>
+      </c>
+      <c r="G18">
+        <v>36.914166000000002</v>
+      </c>
+      <c r="H18">
+        <v>36.946077000000002</v>
+      </c>
+      <c r="I18">
+        <v>39.010671000000002</v>
+      </c>
+      <c r="L18">
+        <v>0.25755299999999998</v>
+      </c>
+      <c r="M18">
+        <v>34.176006000000001</v>
+      </c>
+      <c r="N18">
+        <v>34.188405000000003</v>
+      </c>
+      <c r="O18">
+        <v>34.240727</v>
+      </c>
+      <c r="P18">
+        <v>33.995721000000003</v>
+      </c>
+      <c r="Q18">
+        <v>34.182794999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2">
+        <f>MEDIAN(B14:B18)</f>
+        <v>14.372161999999999</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:R19" si="1">MEDIAN(D14:D18)</f>
+        <v>11.715558</v>
+      </c>
+      <c r="E19" s="2">
+        <f t="shared" si="1"/>
+        <v>41.591121000000001</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="1"/>
+        <v>38.039876</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="1"/>
+        <v>36.914166000000002</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="1"/>
+        <v>37.062925999999997</v>
+      </c>
+      <c r="I19" s="2">
+        <f t="shared" si="1"/>
+        <v>38.933225</v>
+      </c>
+      <c r="J19" s="2" t="e">
+        <f>MEDIAN(J14:J18)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" ref="L19:R19" si="2">MEDIAN(L14:L18)</f>
+        <v>0.25819999999999999</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="2"/>
+        <v>34.256748000000002</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="2"/>
+        <v>34.176516999999997</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="2"/>
+        <v>34.150174</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" si="2"/>
+        <v>34.108224999999997</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" si="2"/>
+        <v>34.040937</v>
+      </c>
+      <c r="R19" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D2:J2"/>
+    <mergeCell ref="L2:R2"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="L12:R12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/times.xlsx
+++ b/times.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Times" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
-    <t>Sequential</t>
-  </si>
-  <si>
     <t>Comm</t>
   </si>
   <si>
@@ -32,6 +29,9 @@
   </si>
   <si>
     <t>MPI (Ethernet and mapped by node)</t>
+  </si>
+  <si>
+    <t>Sequencial</t>
   </si>
 </sst>
 </file>
@@ -183,7 +183,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -207,7 +207,7 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Sequential</c:v>
+                  <c:v>Sequencial</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -294,7 +294,7 @@
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>Sequential</c:v>
+                  <c:v>Sequencial</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -360,7 +360,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="ctr"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -369,7 +369,6 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
         <c:axId val="338710296"/>
         <c:axId val="338701768"/>
       </c:barChart>
@@ -756,7 +755,7 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="stacked"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -780,7 +779,7 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Sequential</c:v>
+                  <c:v>Sequencial</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
@@ -900,7 +899,6 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:overlap val="100"/>
         <c:axId val="278434080"/>
         <c:axId val="278434408"/>
       </c:barChart>
@@ -2312,10 +2310,10 @@
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>184785</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>107363</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2342,10 +2340,10 @@
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>186689</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>208734</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2632,8 +2630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:R9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2643,7 +2641,7 @@
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="D2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -2652,7 +2650,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -2663,7 +2661,7 @@
     </row>
     <row r="3" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
@@ -2808,8 +2806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
-      <selection activeCell="N54" sqref="N54"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2819,7 +2817,7 @@
   <sheetData>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -2828,7 +2826,7 @@
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="L2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -2840,7 +2838,7 @@
     <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1">
@@ -2865,7 +2863,7 @@
         <v>64</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -3193,7 +3191,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -3202,7 +3200,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="L12" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
@@ -3214,7 +3212,7 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1">
@@ -3474,7 +3472,7 @@
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2">
-        <f t="shared" ref="D19:R19" si="1">MEDIAN(D14:D18)</f>
+        <f t="shared" ref="D19:I19" si="1">MEDIAN(D14:D18)</f>
         <v>11.715558</v>
       </c>
       <c r="E19" s="2">

--- a/times.xlsx
+++ b/times.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
   <si>
     <t>Comm</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>Sequencial</t>
+  </si>
+  <si>
+    <t>MPI (Ethernet)</t>
+  </si>
+  <si>
+    <t>MPI (Myrinet)</t>
   </si>
 </sst>
 </file>
@@ -360,7 +366,6 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -2628,10 +2633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R9"/>
+  <dimension ref="A2:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2639,9 +2644,9 @@
     <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D2" s="3" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -2659,7 +2664,7 @@
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
     </row>
-    <row r="3" spans="2:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2706,32 +2711,32 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>14.370657</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>14.421497</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>14.414141000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>14.372161999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>14.37124</v>
       </c>
     </row>
-    <row r="9" spans="2:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <f>MEDIAN(B4:B8)</f>
         <v>14.372161999999999</v>
@@ -2793,10 +2798,172 @@
         <v>#NUM!</v>
       </c>
     </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4</v>
+      </c>
+      <c r="G12" s="1">
+        <v>8</v>
+      </c>
+      <c r="H12" s="1">
+        <v>12</v>
+      </c>
+      <c r="I12" s="1">
+        <v>16</v>
+      </c>
+      <c r="J12" s="1">
+        <v>20</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>2</v>
+      </c>
+      <c r="N12" s="1">
+        <v>4</v>
+      </c>
+      <c r="O12" s="1">
+        <v>8</v>
+      </c>
+      <c r="P12" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>16</v>
+      </c>
+      <c r="R12" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>14.370657</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>14.421497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>14.414141000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>14.372161999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>14.37124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2">
+        <f>MEDIAN(B13:B17)</f>
+        <v>14.372161999999999</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="e">
+        <f t="shared" ref="D18:R18" si="1">MEDIAN(D13:D17)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="E18" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="F18" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="G18" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="H18" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="I18" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="J18" s="2" t="e">
+        <f t="shared" si="1"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2" t="e">
+        <f t="shared" ref="L18:R18" si="2">MEDIAN(L13:L17)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="M18" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="N18" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="O18" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="P18" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q18" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R18" s="2" t="e">
+        <f t="shared" si="2"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="L2:R2"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="L11:R11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2806,8 +2973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/times.xlsx
+++ b/times.xlsx
@@ -110,6 +110,334 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tempo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Times!$B$3,Times!$D$3:$J$3)</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Sequencial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Times!$B$9,Times!$D$9:$J$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>14.372161999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.518706999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1697160000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1350319999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9131450000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5503879999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3054700000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2551379999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2478-4369-9821-E292AE4A3643}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Comunicação</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Times!$K$9:$R$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25735599999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27445900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90936499999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28875000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29761100000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30529800000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31705499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2478-4369-9821-E292AE4A3643}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="291866264"/>
+        <c:axId val="291868888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="291866264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291868888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="291868888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="291866264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -680,7 +1008,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -1295,8 +1623,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1500,23 +1868,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -1621,8 +1988,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1754,20 +2121,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2305,7 +2671,547 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2635,8 +3541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2715,25 +3621,235 @@
       <c r="B4">
         <v>14.370657</v>
       </c>
+      <c r="D4">
+        <v>14.983670999999999</v>
+      </c>
+      <c r="E4">
+        <v>6.1697160000000002</v>
+      </c>
+      <c r="F4">
+        <v>4.1350319999999998</v>
+      </c>
+      <c r="G4">
+        <v>2.9131450000000001</v>
+      </c>
+      <c r="H4">
+        <v>4.2443489999999997</v>
+      </c>
+      <c r="I4">
+        <v>3.3067510000000002</v>
+      </c>
+      <c r="J4">
+        <v>4.2551379999999996</v>
+      </c>
+      <c r="L4">
+        <v>0.29761100000000001</v>
+      </c>
+      <c r="M4">
+        <v>0.27445900000000001</v>
+      </c>
+      <c r="N4">
+        <v>0.90940900000000002</v>
+      </c>
+      <c r="O4">
+        <v>0.28838999999999998</v>
+      </c>
+      <c r="P4">
+        <v>0.29853200000000002</v>
+      </c>
+      <c r="Q4">
+        <v>0.30477300000000002</v>
+      </c>
+      <c r="R4">
+        <v>0.32101299999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>14.421497</v>
       </c>
+      <c r="D5">
+        <v>11.529947999999999</v>
+      </c>
+      <c r="E5">
+        <v>6.1717500000000003</v>
+      </c>
+      <c r="F5">
+        <v>3.4904540000000002</v>
+      </c>
+      <c r="G5">
+        <v>2.913456</v>
+      </c>
+      <c r="H5">
+        <v>4.5503879999999999</v>
+      </c>
+      <c r="I5">
+        <v>3.262912</v>
+      </c>
+      <c r="J5">
+        <v>4.9471730000000003</v>
+      </c>
+      <c r="L5">
+        <v>0.256992</v>
+      </c>
+      <c r="M5">
+        <v>0.27569300000000002</v>
+      </c>
+      <c r="N5">
+        <v>0.26780300000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.28909800000000002</v>
+      </c>
+      <c r="P5">
+        <v>0.29761100000000001</v>
+      </c>
+      <c r="Q5">
+        <v>0.30546299999999998</v>
+      </c>
+      <c r="R5">
+        <v>0.31156200000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>14.414141000000001</v>
       </c>
+      <c r="D6">
+        <v>11.514154</v>
+      </c>
+      <c r="E6">
+        <v>6.1726640000000002</v>
+      </c>
+      <c r="F6">
+        <v>4.1318859999999997</v>
+      </c>
+      <c r="G6">
+        <v>2.910415</v>
+      </c>
+      <c r="H6">
+        <v>4.5438270000000003</v>
+      </c>
+      <c r="I6">
+        <v>3.3029700000000002</v>
+      </c>
+      <c r="J6">
+        <v>4.9350670000000001</v>
+      </c>
+      <c r="L6">
+        <v>0.25735599999999997</v>
+      </c>
+      <c r="M6">
+        <v>0.27968500000000002</v>
+      </c>
+      <c r="N6">
+        <v>0.90936499999999998</v>
+      </c>
+      <c r="O6">
+        <v>0.28639799999999999</v>
+      </c>
+      <c r="P6">
+        <v>0.297321</v>
+      </c>
+      <c r="Q6">
+        <v>0.30529800000000001</v>
+      </c>
+      <c r="R6">
+        <v>0.31705499999999998</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>14.372161999999999</v>
       </c>
+      <c r="D7">
+        <v>11.518706999999999</v>
+      </c>
+      <c r="E7">
+        <v>6.1663779999999999</v>
+      </c>
+      <c r="F7">
+        <v>4.137162</v>
+      </c>
+      <c r="G7">
+        <v>2.9114490000000002</v>
+      </c>
+      <c r="H7">
+        <v>4.5814209999999997</v>
+      </c>
+      <c r="I7">
+        <v>3.3054999999999999</v>
+      </c>
+      <c r="J7">
+        <v>4.0589149999999998</v>
+      </c>
+      <c r="L7">
+        <v>0.25682500000000003</v>
+      </c>
+      <c r="M7">
+        <v>0.274196</v>
+      </c>
+      <c r="N7">
+        <v>0.90906799999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.28905999999999998</v>
+      </c>
+      <c r="P7">
+        <v>0.29741499999999998</v>
+      </c>
+      <c r="Q7">
+        <v>0.30534699999999998</v>
+      </c>
+      <c r="R7">
+        <v>0.32704800000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>14.37124</v>
+      </c>
+      <c r="D8">
+        <v>11.514006999999999</v>
+      </c>
+      <c r="E8">
+        <v>6.166595</v>
+      </c>
+      <c r="F8">
+        <v>4.1478020000000004</v>
+      </c>
+      <c r="G8">
+        <v>2.9132099999999999</v>
+      </c>
+      <c r="H8">
+        <v>4.6630099999999999</v>
+      </c>
+      <c r="I8">
+        <v>3.3054700000000001</v>
+      </c>
+      <c r="J8">
+        <v>4.2263799999999998</v>
+      </c>
+      <c r="L8">
+        <v>0.25752900000000001</v>
+      </c>
+      <c r="M8">
+        <v>0.274171</v>
+      </c>
+      <c r="N8">
+        <v>0.90951499999999996</v>
+      </c>
+      <c r="O8">
+        <v>0.28875000000000001</v>
+      </c>
+      <c r="P8">
+        <v>0.29765799999999998</v>
+      </c>
+      <c r="Q8">
+        <v>0.30497000000000002</v>
+      </c>
+      <c r="R8">
+        <v>0.31207600000000002</v>
       </c>
     </row>
     <row r="9" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2741,61 +3857,64 @@
         <f>MEDIAN(B4:B8)</f>
         <v>14.372161999999999</v>
       </c>
-      <c r="D9" s="2" t="e">
+      <c r="D9" s="2">
         <f t="shared" ref="D9:R9" si="0">MEDIAN(D4:D8)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E9" s="2" t="e">
+        <v>11.518706999999999</v>
+      </c>
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F9" s="2" t="e">
+        <v>6.1697160000000002</v>
+      </c>
+      <c r="F9" s="2">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G9" s="2" t="e">
+        <v>4.1350319999999998</v>
+      </c>
+      <c r="G9" s="2">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="H9" s="2" t="e">
+        <v>2.9131450000000001</v>
+      </c>
+      <c r="H9" s="2">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I9" s="2" t="e">
+        <v>4.5503879999999999</v>
+      </c>
+      <c r="I9" s="2">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J9" s="2" t="e">
+        <v>3.3054700000000001</v>
+      </c>
+      <c r="J9" s="2">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="L9" s="2" t="e">
+        <v>4.2551379999999996</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="M9" s="2" t="e">
+        <v>0.25735599999999997</v>
+      </c>
+      <c r="M9" s="2">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N9" s="2" t="e">
+        <v>0.27445900000000001</v>
+      </c>
+      <c r="N9" s="2">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O9" s="2" t="e">
+        <v>0.90936499999999998</v>
+      </c>
+      <c r="O9" s="2">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="P9" s="2" t="e">
+        <v>0.28875000000000001</v>
+      </c>
+      <c r="P9" s="2">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="Q9" s="2" t="e">
+        <v>0.29761100000000001</v>
+      </c>
+      <c r="Q9" s="2">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="R9" s="2" t="e">
+        <v>0.30529800000000001</v>
+      </c>
+      <c r="R9" s="2">
         <f t="shared" si="0"/>
-        <v>#NUM!</v>
+        <v>0.31705499999999998</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
@@ -2872,25 +3991,145 @@
       <c r="B13">
         <v>14.370657</v>
       </c>
+      <c r="D13">
+        <v>14.999549999999999</v>
+      </c>
+      <c r="E13">
+        <v>7.7836999999999996</v>
+      </c>
+      <c r="F13">
+        <v>4.4015129999999996</v>
+      </c>
+      <c r="G13">
+        <v>3.5778210000000001</v>
+      </c>
+      <c r="L13">
+        <v>0.29949700000000001</v>
+      </c>
+      <c r="M13">
+        <v>0.33107599999999998</v>
+      </c>
+      <c r="N13">
+        <v>0.31273200000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.32262000000000002</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>14.421497</v>
       </c>
+      <c r="D14">
+        <v>14.965225</v>
+      </c>
+      <c r="E14">
+        <v>7.7806240000000004</v>
+      </c>
+      <c r="F14">
+        <v>4.3985969999999996</v>
+      </c>
+      <c r="G14">
+        <v>3.5689329999999999</v>
+      </c>
+      <c r="L14">
+        <v>0.29695100000000002</v>
+      </c>
+      <c r="M14">
+        <v>0.33114300000000002</v>
+      </c>
+      <c r="N14">
+        <v>0.31061</v>
+      </c>
+      <c r="O14">
+        <v>0.32081300000000001</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>14.414141000000001</v>
       </c>
+      <c r="D15">
+        <v>14.964880000000001</v>
+      </c>
+      <c r="E15">
+        <v>7.7840759999999998</v>
+      </c>
+      <c r="F15">
+        <v>4.4043479999999997</v>
+      </c>
+      <c r="G15">
+        <v>3.5629749999999998</v>
+      </c>
+      <c r="L15">
+        <v>0.29681299999999999</v>
+      </c>
+      <c r="M15">
+        <v>0.33315699999999998</v>
+      </c>
+      <c r="N15">
+        <v>0.312917</v>
+      </c>
+      <c r="O15">
+        <v>0.32095699999999999</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>14.372161999999999</v>
       </c>
+      <c r="D16">
+        <v>14.966846</v>
+      </c>
+      <c r="E16">
+        <v>7.7931379999999999</v>
+      </c>
+      <c r="F16">
+        <v>4.4031539999999998</v>
+      </c>
+      <c r="G16">
+        <v>3.5774810000000001</v>
+      </c>
+      <c r="L16">
+        <v>0.29783599999999999</v>
+      </c>
+      <c r="M16">
+        <v>0.32777800000000001</v>
+      </c>
+      <c r="N16">
+        <v>0.31375999999999998</v>
+      </c>
+      <c r="O16">
+        <v>0.32329999999999998</v>
+      </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>14.37124</v>
+      </c>
+      <c r="D17">
+        <v>14.963056</v>
+      </c>
+      <c r="E17">
+        <v>7.7946960000000001</v>
+      </c>
+      <c r="F17">
+        <v>4.398047</v>
+      </c>
+      <c r="G17">
+        <v>3.572155</v>
+      </c>
+      <c r="L17">
+        <v>0.29638300000000001</v>
+      </c>
+      <c r="M17">
+        <v>0.32961699999999999</v>
+      </c>
+      <c r="N17">
+        <v>0.30931199999999998</v>
+      </c>
+      <c r="O17">
+        <v>0.32035599999999997</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
@@ -2900,21 +4139,21 @@
         <v>14.372161999999999</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="2" t="e">
+      <c r="D18" s="2">
         <f t="shared" ref="D18:R18" si="1">MEDIAN(D13:D17)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E18" s="2" t="e">
+        <v>14.965225</v>
+      </c>
+      <c r="E18" s="2">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="F18" s="2" t="e">
+        <v>7.7840759999999998</v>
+      </c>
+      <c r="F18" s="2">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="G18" s="2" t="e">
+        <v>4.4015129999999996</v>
+      </c>
+      <c r="G18" s="2">
         <f t="shared" si="1"/>
-        <v>#NUM!</v>
+        <v>3.572155</v>
       </c>
       <c r="H18" s="2" t="e">
         <f t="shared" si="1"/>
@@ -2929,21 +4168,21 @@
         <v>#NUM!</v>
       </c>
       <c r="K18" s="2"/>
-      <c r="L18" s="2" t="e">
+      <c r="L18" s="2">
         <f t="shared" ref="L18:R18" si="2">MEDIAN(L13:L17)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="M18" s="2" t="e">
+        <v>0.29695100000000002</v>
+      </c>
+      <c r="M18" s="2">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="N18" s="2" t="e">
+        <v>0.33107599999999998</v>
+      </c>
+      <c r="N18" s="2">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="O18" s="2" t="e">
+        <v>0.31273200000000001</v>
+      </c>
+      <c r="O18" s="2">
         <f t="shared" si="2"/>
-        <v>#NUM!</v>
+        <v>0.32095699999999999</v>
       </c>
       <c r="P18" s="2" t="e">
         <f t="shared" si="2"/>
@@ -2966,6 +4205,7 @@
     <mergeCell ref="L11:R11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2973,7 +4213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R19"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>

--- a/times.xlsx
+++ b/times.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="7">
   <si>
     <t>Comm</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>MPI (Myrinet)</t>
+  </si>
+  <si>
+    <t>SpeedUp</t>
   </si>
 </sst>
 </file>
@@ -123,12 +126,81 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Percentagem</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> dos </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Tempos de Execução e Comunicação</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> - Ethernet @ SeARCH 641</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="percentStacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -281,7 +353,7 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:overlap val="100"/>
         <c:axId val="291866264"/>
         <c:axId val="291868888"/>
       </c:barChart>
@@ -292,6 +364,62 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Número de Processadores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -357,7 +485,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tempo (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -389,6 +573,260 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="291866264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="371686272"/>
+        <c:axId val="371691848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="371686272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="371691848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="371691848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="371686272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -437,7 +875,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -1008,7 +1446,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -1663,6 +2101,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2167,7 +2645,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2371,6 +2849,509 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -2671,7 +3652,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -3181,15 +4162,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3203,6 +4184,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3539,10 +4550,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R18"/>
+  <dimension ref="A2:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3917,292 +4928,366 @@
         <v>0.31705499999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="L11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
+    <row r="10" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="2">
+        <f>$B$9/B9</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <f>$B$9/D9</f>
+        <v>1.2477235509159146</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" ref="C10:J10" si="1">$B$9/E9</f>
+        <v>2.3294689739365637</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>3.4757075640527089</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="1"/>
+        <v>4.933555315646835</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="1"/>
+        <v>3.1584475873266191</v>
+      </c>
+      <c r="I10" s="2">
+        <f t="shared" si="1"/>
+        <v>4.3479934774782398</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="1"/>
+        <v>3.3776018545109467</v>
+      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1">
-        <v>1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2</v>
-      </c>
-      <c r="F12" s="1">
-        <v>4</v>
-      </c>
-      <c r="G12" s="1">
-        <v>8</v>
-      </c>
-      <c r="H12" s="1">
-        <v>12</v>
-      </c>
-      <c r="I12" s="1">
-        <v>16</v>
-      </c>
-      <c r="J12" s="1">
-        <v>20</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1">
-        <v>1</v>
-      </c>
-      <c r="M12" s="1">
-        <v>2</v>
-      </c>
-      <c r="N12" s="1">
-        <v>4</v>
-      </c>
-      <c r="O12" s="1">
-        <v>8</v>
-      </c>
-      <c r="P12" s="1">
-        <v>12</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>16</v>
-      </c>
-      <c r="R12" s="1">
-        <v>20</v>
-      </c>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B13">
-        <v>14.370657</v>
-      </c>
-      <c r="D13">
-        <v>14.999549999999999</v>
-      </c>
-      <c r="E13">
-        <v>7.7836999999999996</v>
-      </c>
-      <c r="F13">
-        <v>4.4015129999999996</v>
-      </c>
-      <c r="G13">
-        <v>3.5778210000000001</v>
-      </c>
-      <c r="L13">
-        <v>0.29949700000000001</v>
-      </c>
-      <c r="M13">
-        <v>0.33107599999999998</v>
-      </c>
-      <c r="N13">
-        <v>0.31273200000000001</v>
-      </c>
-      <c r="O13">
-        <v>0.32262000000000002</v>
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>8</v>
+      </c>
+      <c r="H13" s="1">
+        <v>12</v>
+      </c>
+      <c r="I13" s="1">
+        <v>16</v>
+      </c>
+      <c r="J13" s="1">
+        <v>20</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>2</v>
+      </c>
+      <c r="N13" s="1">
+        <v>4</v>
+      </c>
+      <c r="O13" s="1">
+        <v>8</v>
+      </c>
+      <c r="P13" s="1">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>16</v>
+      </c>
+      <c r="R13" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B14">
-        <v>14.421497</v>
+        <v>14.370657</v>
       </c>
       <c r="D14">
-        <v>14.965225</v>
+        <v>14.999549999999999</v>
       </c>
       <c r="E14">
-        <v>7.7806240000000004</v>
+        <v>7.7836999999999996</v>
       </c>
       <c r="F14">
-        <v>4.3985969999999996</v>
+        <v>4.4015129999999996</v>
       </c>
       <c r="G14">
-        <v>3.5689329999999999</v>
+        <v>3.5778210000000001</v>
       </c>
       <c r="L14">
-        <v>0.29695100000000002</v>
+        <v>0.29949700000000001</v>
       </c>
       <c r="M14">
-        <v>0.33114300000000002</v>
+        <v>0.33107599999999998</v>
       </c>
       <c r="N14">
-        <v>0.31061</v>
+        <v>0.31273200000000001</v>
       </c>
       <c r="O14">
-        <v>0.32081300000000001</v>
+        <v>0.32262000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>14.414141000000001</v>
+        <v>14.421497</v>
       </c>
       <c r="D15">
-        <v>14.964880000000001</v>
+        <v>14.965225</v>
       </c>
       <c r="E15">
-        <v>7.7840759999999998</v>
+        <v>7.7806240000000004</v>
       </c>
       <c r="F15">
-        <v>4.4043479999999997</v>
+        <v>4.3985969999999996</v>
       </c>
       <c r="G15">
-        <v>3.5629749999999998</v>
+        <v>3.5689329999999999</v>
       </c>
       <c r="L15">
-        <v>0.29681299999999999</v>
+        <v>0.29695100000000002</v>
       </c>
       <c r="M15">
-        <v>0.33315699999999998</v>
+        <v>0.33114300000000002</v>
       </c>
       <c r="N15">
-        <v>0.312917</v>
+        <v>0.31061</v>
       </c>
       <c r="O15">
-        <v>0.32095699999999999</v>
+        <v>0.32081300000000001</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B16">
-        <v>14.372161999999999</v>
+        <v>14.414141000000001</v>
       </c>
       <c r="D16">
-        <v>14.966846</v>
+        <v>14.964880000000001</v>
       </c>
       <c r="E16">
-        <v>7.7931379999999999</v>
+        <v>7.7840759999999998</v>
       </c>
       <c r="F16">
-        <v>4.4031539999999998</v>
+        <v>4.4043479999999997</v>
       </c>
       <c r="G16">
-        <v>3.5774810000000001</v>
+        <v>3.5629749999999998</v>
       </c>
       <c r="L16">
-        <v>0.29783599999999999</v>
+        <v>0.29681299999999999</v>
       </c>
       <c r="M16">
-        <v>0.32777800000000001</v>
+        <v>0.33315699999999998</v>
       </c>
       <c r="N16">
-        <v>0.31375999999999998</v>
+        <v>0.312917</v>
       </c>
       <c r="O16">
-        <v>0.32329999999999998</v>
+        <v>0.32095699999999999</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B17">
-        <v>14.37124</v>
+        <v>14.372161999999999</v>
       </c>
       <c r="D17">
-        <v>14.963056</v>
+        <v>14.966846</v>
       </c>
       <c r="E17">
-        <v>7.7946960000000001</v>
+        <v>7.7931379999999999</v>
       </c>
       <c r="F17">
-        <v>4.398047</v>
+        <v>4.4031539999999998</v>
       </c>
       <c r="G17">
-        <v>3.572155</v>
+        <v>3.5774810000000001</v>
       </c>
       <c r="L17">
-        <v>0.29638300000000001</v>
+        <v>0.29783599999999999</v>
       </c>
       <c r="M17">
-        <v>0.32961699999999999</v>
+        <v>0.32777800000000001</v>
       </c>
       <c r="N17">
-        <v>0.30931199999999998</v>
+        <v>0.31375999999999998</v>
       </c>
       <c r="O17">
-        <v>0.32035599999999997</v>
+        <v>0.32329999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2">
-        <f>MEDIAN(B13:B17)</f>
+      <c r="B18">
+        <v>14.37124</v>
+      </c>
+      <c r="D18">
+        <v>14.963056</v>
+      </c>
+      <c r="E18">
+        <v>7.7946960000000001</v>
+      </c>
+      <c r="F18">
+        <v>4.398047</v>
+      </c>
+      <c r="G18">
+        <v>3.572155</v>
+      </c>
+      <c r="L18">
+        <v>0.29638300000000001</v>
+      </c>
+      <c r="M18">
+        <v>0.32961699999999999</v>
+      </c>
+      <c r="N18">
+        <v>0.30931199999999998</v>
+      </c>
+      <c r="O18">
+        <v>0.32035599999999997</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2">
+        <f>MEDIAN(B14:B18)</f>
         <v>14.372161999999999</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2">
-        <f t="shared" ref="D18:R18" si="1">MEDIAN(D13:D17)</f>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2">
+        <f t="shared" ref="D19:R19" si="2">MEDIAN(D14:D18)</f>
         <v>14.965225</v>
       </c>
-      <c r="E18" s="2">
-        <f t="shared" si="1"/>
+      <c r="E19" s="2">
+        <f t="shared" si="2"/>
         <v>7.7840759999999998</v>
       </c>
-      <c r="F18" s="2">
-        <f t="shared" si="1"/>
+      <c r="F19" s="2">
+        <f t="shared" si="2"/>
         <v>4.4015129999999996</v>
       </c>
-      <c r="G18" s="2">
-        <f t="shared" si="1"/>
+      <c r="G19" s="2">
+        <f t="shared" si="2"/>
         <v>3.572155</v>
       </c>
-      <c r="H18" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="I18" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="J18" s="2" t="e">
-        <f t="shared" si="1"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2">
-        <f t="shared" ref="L18:R18" si="2">MEDIAN(L13:L17)</f>
-        <v>0.29695100000000002</v>
-      </c>
-      <c r="M18" s="2">
-        <f t="shared" si="2"/>
-        <v>0.33107599999999998</v>
-      </c>
-      <c r="N18" s="2">
-        <f t="shared" si="2"/>
-        <v>0.31273200000000001</v>
-      </c>
-      <c r="O18" s="2">
-        <f t="shared" si="2"/>
-        <v>0.32095699999999999</v>
-      </c>
-      <c r="P18" s="2" t="e">
+      <c r="H19" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="Q18" s="2" t="e">
+      <c r="I19" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="R18" s="2" t="e">
+      <c r="J19" s="2" t="e">
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2">
+        <f t="shared" ref="L19:R19" si="3">MEDIAN(L14:L18)</f>
+        <v>0.29695100000000002</v>
+      </c>
+      <c r="M19" s="2">
+        <f t="shared" si="3"/>
+        <v>0.33107599999999998</v>
+      </c>
+      <c r="N19" s="2">
+        <f t="shared" si="3"/>
+        <v>0.31273200000000001</v>
+      </c>
+      <c r="O19" s="2">
+        <f t="shared" si="3"/>
+        <v>0.32095699999999999</v>
+      </c>
+      <c r="P19" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="Q19" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+      <c r="R19" s="2" t="e">
+        <f t="shared" si="3"/>
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="2">
+        <f>$B$19/B19</f>
+        <v>1</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
+        <f t="shared" ref="C20:G20" si="4">$B$19/D19</f>
+        <v>0.96037059249025658</v>
+      </c>
+      <c r="E20" s="2">
+        <f t="shared" si="4"/>
+        <v>1.8463542750610349</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="4"/>
+        <v>3.2652776443009484</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="4"/>
+        <v>4.023387003083573</v>
+      </c>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D2:J2"/>
     <mergeCell ref="L2:R2"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="L11:R11"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="L12:R12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/times.xlsx
+++ b/times.xlsx
@@ -675,6 +675,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Ganhos</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> de Desempenho - Ethernet @ SeARCH 641</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -712,9 +742,156 @@
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ganho</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Times!$B$3,Times!$D$3:$J$3)</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Sequencial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Times!$B$10,Times!$D$10:$J$10)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2477235509159146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3294689739365637</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4757075640527089</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.933555315646835</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1584475873266191</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.3479934774782398</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3776018545109467</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B47-4FF5-82C0-6F5FA02EDC46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -732,6 +909,68 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Número</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> de Processadores</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -796,6 +1035,63 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ganho</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -876,6 +1172,1029 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Percentagem</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> dos </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Tempos de Execução e Comunicação - Myrinet @ SeARCH 641</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Tempo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Times!$B$13,Times!$D$13:$G$13)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Sequencial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Times!$B$19,Times!$D$19:$G$19)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14.372161999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.965225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7840759999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4015129999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.572155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3BC3-4A48-8576-DFBE154C233E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Comunicação</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Times!$B$13,Times!$D$13:$G$13)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Sequencial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Times!$K$19:$O$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29695100000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33107599999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31273200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32095699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3BC3-4A48-8576-DFBE154C233E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="100"/>
+        <c:axId val="292024248"/>
+        <c:axId val="292024904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="292024248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Número de Processadores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292024904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="292024904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tempo (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="292024248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Ganhos de Desempenho - Myrinet @ SeARCH 641</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Ganho</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Times!$B$13,Times!$D$13:$G$13)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Sequencial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Times!$B$20,Times!$D$20:$G$20)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.96037059249025658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8463542750610349</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.2652776443009484</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.023387003083573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4B60-48A3-B349-C396B23E310B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="496077536"/>
+        <c:axId val="496078192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="496077536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Número de Processadores</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496078192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="496078192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Ganho</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="496077536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -1446,7 +2765,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -2062,6 +3381,80 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2101,7 +3494,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3148,7 +4541,7 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3352,6 +4745,1012 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -3652,7 +6051,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -4167,10 +6566,10 @@
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4191,16 +6590,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4214,6 +6613,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>327025</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>160019</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4552,8 +7011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="R51" sqref="R51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5215,7 +7674,9 @@
         <f t="shared" si="2"/>
         <v>#NUM!</v>
       </c>
-      <c r="K19" s="2"/>
+      <c r="K19" s="2">
+        <v>0</v>
+      </c>
       <c r="L19" s="2">
         <f t="shared" ref="L19:R19" si="3">MEDIAN(L14:L18)</f>
         <v>0.29695100000000002</v>

--- a/times.xlsx
+++ b/times.xlsx
@@ -2209,6 +2209,613 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Eth - Tempo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Times!$B$3,Times!$D$3:$J$3)</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Sequencial</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Times!$B$9,Times!$D$9:$J$9)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>14.372161999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.518706999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.1697160000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1350319999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9131450000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5503879999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3054700000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2551379999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-34AA-4786-8718-42DE21F70D5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Eth - Com</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Times!$K$9:$R$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.25735599999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.27445900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.90936499999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28875000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29761100000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.30529800000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.31705499999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-34AA-4786-8718-42DE21F70D5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Myr - Tempo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>(Times!$B$19,Times!$D$19:$G$19)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>14.372161999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.965225</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.7840759999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4015129999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.572155</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-34AA-4786-8718-42DE21F70D5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Myr - Com</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Times!$K$19:$O$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29695100000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33107599999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31273200000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.32095699999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-34AA-4786-8718-42DE21F70D5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="370568528"/>
+        <c:axId val="370570824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="370568528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Número</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> de Processos</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370570824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="370570824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tempo (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370568528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-PT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -2765,7 +3372,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="pt-PT"/>
@@ -3534,6 +4141,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -5547,7 +6194,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -5751,6 +6398,509 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -6051,7 +7201,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6673,6 +7823,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>173565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>72344</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -7011,8 +8191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R51" sqref="R51"/>
+    <sheetView tabSelected="1" topLeftCell="C33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J65" sqref="J65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/times.xlsx
+++ b/times.xlsx
@@ -2209,6 +2209,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Tempos de Execução</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> - Ethernet VS Myrinet - SeARCH 641</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2264,31 +2294,35 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>(Times!$B$3,Times!$D$3:$J$3)</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>(Times!$B$3,Times!$D$3:$J$3)</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Times!$D$3:$J$3</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>Sequencial</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>20</c:v>
                 </c:pt>
               </c:strCache>
@@ -2296,32 +2330,36 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Times!$B$9,Times!$D$9:$J$9)</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>(Times!$B$9,Times!$D$9:$J$9)</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Times!$D$9:$J$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>14.372161999999999</c:v>
+                  <c:v>11.518706999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.518706999999999</c:v>
+                  <c:v>6.1697160000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.1697160000000002</c:v>
+                  <c:v>4.1350319999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1350319999999998</c:v>
+                  <c:v>2.9131450000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.9131450000000001</c:v>
+                  <c:v>4.5503879999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5503879999999999</c:v>
+                  <c:v>3.3054700000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.3054700000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
                   <c:v>4.2551379999999996</c:v>
                 </c:pt>
               </c:numCache>
@@ -2334,14 +2372,14 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="3"/>
           <c:tx>
-            <c:v>Eth - Com</c:v>
+            <c:v>Myr - Tempo</c:v>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2"/>
+              <a:schemeClr val="accent6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2349,80 +2387,65 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>(Times!$B$3,Times!$D$3:$J$3)</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Times!$D$3:$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Times!$K$9:$R$9</c:f>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>(Times!$B$19,Times!$D$19:$G$19)</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Times!$D$19:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>14.965225</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25735599999999997</c:v>
+                  <c:v>7.7840759999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27445900000000001</c:v>
+                  <c:v>4.4015129999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.90936499999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.28875000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.29761100000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.30529800000000001</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.31705499999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-34AA-4786-8718-42DE21F70D5A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:v>Myr - Tempo</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>(Times!$B$19,Times!$D$19:$G$19)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>14.372161999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14.965225</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.7840759999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.4015129999999996</c:v>
-                </c:pt>
-                <c:pt idx="4">
                   <c:v>3.572155</c:v>
                 </c:pt>
               </c:numCache>
@@ -2431,52 +2454,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-34AA-4786-8718-42DE21F70D5A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:v>Myr - Com</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>Times!$K$19:$O$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.29695100000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.33107599999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.31273200000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.32095699999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-34AA-4786-8718-42DE21F70D5A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2492,6 +2469,396 @@
         <c:overlap val="-27"/>
         <c:axId val="370568528"/>
         <c:axId val="370570824"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>Eth - Com</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>(Times!$B$3,Times!$D$3:$J$3)</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Times!$D$3:$J$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Times!$K$9:$R$9</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Times!$L$9:$R$9</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>0.25735599999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.27445900000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.90936499999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.28875000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.29761100000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.30529800000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.31705499999999998</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-34AA-4786-8718-42DE21F70D5A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>Eth - Ganho</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent1"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>(Times!$B$3,Times!$D$3:$J$3)</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Times!$D$3:$J$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>(Times!$B$10,Times!$D$10:$J$10)</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Times!$D$10:$J$10</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>1.2477235509159146</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.3294689739365637</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.4757075640527089</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4.933555315646835</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.1584475873266191</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.3479934774782398</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>3.3776018545109467</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000008-34AA-4786-8718-42DE21F70D5A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="4"/>
+                <c:tx>
+                  <c:v>Myr - Com</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>(Times!$B$3,Times!$D$3:$J$3)</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Times!$D$3:$J$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>Times!$K$19:$O$19</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Times!$L$19:$O$19</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.29695100000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.33107599999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.31273200000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.32095699999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-34AA-4786-8718-42DE21F70D5A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="5"/>
+                <c:tx>
+                  <c:v>Myr - Ganho</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>(Times!$B$3,Times!$D$3:$J$3)</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Times!$D$3:$J$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="7"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>20</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>(Times!$B$20,Times!$D$20:$G$20)</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>Times!$D$20:$G$20</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="0">
+                        <c:v>0.96037059249025658</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.8463542750610349</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.2652776443009484</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4.023387003083573</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000009-34AA-4786-8718-42DE21F70D5A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:barChart>
       <c:catAx>
         <c:axId val="370568528"/>
@@ -8191,8 +8558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O69" sqref="O69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
